--- a/medicine/Enfance/Chemins_toxiques/Chemins_toxiques.xlsx
+++ b/medicine/Enfance/Chemins_toxiques/Chemins_toxiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chemins toxiques[1] (titre original : Fuzzy  Mud) est un roman de l'écrivain américain Louis Sachar, publié en France en 2016 aux éditions Gallimard Jeunesse et traduit en français par Jean-François Ménard.
+Chemins toxiques (titre original : Fuzzy  Mud) est un roman de l'écrivain américain Louis Sachar, publié en France en 2016 aux éditions Gallimard Jeunesse et traduit en français par Jean-François Ménard.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est destiné à des lecteurs de 9 à 13 ans. Il a été sélectionné par le Prix des Incorruptibles, pour la sélection 2017-2018.
 </t>
@@ -543,7 +557,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tamaya  et Marshall sont amis et voisins. Chaque jour, ils vont ensemble à l'école Woodridge d'Heath Cliff en Pennsylvanie. Ce jusqu'à l'arrivée de Chad, un élève violent et provocateur qui oblige les deux amis à emprunter un raccourci dans le bois qui sépare l'école de leur maison. Ce raccourci va se révéler dangereux mais il permettra dans le même temps d'éviter une épidémie à l'échelle mondiale. 
 </t>
@@ -574,7 +590,9 @@
           <t>Personnage de l'histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tamaya Dhilwaddi est en CM2 à l'école privée de Woodridge. Elle vit seule avec sa mère, d'une nature réservée mais intelligente, la jeune fille fera preuve de courage et d'héroïsme.
 Marshall Walsh est en 5e à Woodridge, depuis l'arrivée de Chad Hilligas dans sa classe, il prend de plus en plus de distance avec Tamaya et ses autres amis. En effet, il est victime de harcèlement.
@@ -607,7 +625,9 @@
           <t>Thèmes abordés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Harcèlement, amitié, école, environnement et écologie, recherches et progrès scientifiques. 
 </t>
